--- a/Read_files/data.xlsx
+++ b/Read_files/data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="sales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>login</t>
   </si>
@@ -63,6 +64,21 @@
   </si>
   <si>
     <t>user11</t>
+  </si>
+  <si>
+    <t>Товар</t>
+  </si>
+  <si>
+    <t>Количество продаж</t>
+  </si>
+  <si>
+    <t>Айфон</t>
+  </si>
+  <si>
+    <t>Кофемашина</t>
+  </si>
+  <si>
+    <t>Чехол для телефона</t>
   </si>
 </sst>
 </file>
@@ -383,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -488,4 +504,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>